--- a/model/Outputs/2. No PV/Output Files/20/Output_10_37.xlsx
+++ b/model/Outputs/2. No PV/Output Files/20/Output_10_37.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2894438.018550889</v>
+        <v>2896154.550748563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>342857.5917216506</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Total Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>342857.5917216506</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>29364.14959724166</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Total Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>29364.14959724166</v>
       </c>
     </row>
   </sheetData>
@@ -23439,13 +23479,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.99931295557451</v>
+        <v>70.99931295557451</v>
       </c>
       <c r="C14" t="n">
-        <v>39.47457824299391</v>
+        <v>38.47457824299391</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3391557398497866</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23454,10 +23494,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8327491714383086</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>25.02773927029563</v>
+        <v>24.02773927029563</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23493,22 +23533,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>119.6191915811053</v>
+        <v>118.6191915811053</v>
       </c>
       <c r="U14" t="n">
-        <v>234.5217529288726</v>
+        <v>233.5217529288726</v>
       </c>
       <c r="V14" t="n">
-        <v>219.8510241668239</v>
+        <v>218.8510241668239</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3734759809475</v>
+        <v>227.3734759809475</v>
       </c>
       <c r="X14" t="n">
-        <v>182.2818334606677</v>
+        <v>181.2818334606677</v>
       </c>
       <c r="Y14" t="n">
-        <v>101.3174326828064</v>
+        <v>100.3174326828064</v>
       </c>
     </row>
     <row r="15">
@@ -23578,13 +23618,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>4.510667191520156</v>
+        <v>3.510667191520156</v>
       </c>
       <c r="W15" t="n">
-        <v>22.37314290982852</v>
+        <v>21.37314290982852</v>
       </c>
       <c r="X15" t="n">
-        <v>9.862739445387547</v>
+        <v>8.862739445387547</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23642,10 +23682,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.1821235684552</v>
+        <v>111.1821235684552</v>
       </c>
       <c r="R16" t="n">
-        <v>311.1956210454637</v>
+        <v>310.1956210454637</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -25809,25 +25849,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>178.9993129555745</v>
+        <v>179.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>146.4745782429939</v>
+        <v>147.4745782429939</v>
       </c>
       <c r="D44" t="n">
-        <v>107.3391557398498</v>
+        <v>108.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>101.3632896068686</v>
+        <v>102.3632896068686</v>
       </c>
       <c r="F44" t="n">
-        <v>101.8896287080119</v>
+        <v>102.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>107.8327491714383</v>
+        <v>108.8327491714383</v>
       </c>
       <c r="H44" t="n">
-        <v>132.0277392702956</v>
+        <v>133.0277392702956</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25863,22 +25903,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>226.6191915811053</v>
+        <v>227.6191915811053</v>
       </c>
       <c r="U44" t="n">
-        <v>341.5217529288726</v>
+        <v>342.5217529288726</v>
       </c>
       <c r="V44" t="n">
-        <v>326.8510241668239</v>
+        <v>327.8510241668239</v>
       </c>
       <c r="W44" t="n">
-        <v>335.3734759809475</v>
+        <v>336.3734759809475</v>
       </c>
       <c r="X44" t="n">
-        <v>289.2818334606677</v>
+        <v>290.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>208.3174326828064</v>
+        <v>209.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -25888,25 +25928,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.55655664632661</v>
+        <v>82.55655664632661</v>
       </c>
       <c r="C45" t="n">
-        <v>58.09991244551929</v>
+        <v>59.09991244551929</v>
       </c>
       <c r="D45" t="n">
-        <v>44.93768689770263</v>
+        <v>45.93768689770263</v>
       </c>
       <c r="E45" t="n">
-        <v>39.67209722191262</v>
+        <v>40.67209722191262</v>
       </c>
       <c r="F45" t="n">
-        <v>36.63624233787687</v>
+        <v>37.63624233787687</v>
       </c>
       <c r="G45" t="n">
-        <v>26.52519625238585</v>
+        <v>27.52519625238585</v>
       </c>
       <c r="H45" t="n">
-        <v>42.22842014979517</v>
+        <v>43.22842014979517</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25936,28 +25976,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.67054165050009</v>
+        <v>51.67054165050009</v>
       </c>
       <c r="S45" t="n">
-        <v>37.140588939824</v>
+        <v>38.140588939824</v>
       </c>
       <c r="T45" t="n">
-        <v>85.53401876295709</v>
+        <v>86.53401876295709</v>
       </c>
       <c r="U45" t="n">
-        <v>96.68869740971195</v>
+        <v>97.68869740971195</v>
       </c>
       <c r="V45" t="n">
-        <v>111.5106671915202</v>
+        <v>112.5106671915202</v>
       </c>
       <c r="W45" t="n">
-        <v>129.3731429098285</v>
+        <v>130.3731429098285</v>
       </c>
       <c r="X45" t="n">
-        <v>116.8627394453875</v>
+        <v>117.8627394453875</v>
       </c>
       <c r="Y45" t="n">
-        <v>96.39139276613435</v>
+        <v>97.39139276613435</v>
       </c>
     </row>
     <row r="46">
@@ -26012,13 +26052,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>219.1821235684552</v>
+        <v>220.1821235684552</v>
       </c>
       <c r="R46" t="n">
-        <v>418.1956210454637</v>
+        <v>419.1956210454637</v>
       </c>
       <c r="S46" t="n">
-        <v>106.541226054864</v>
+        <v>107.541226054864</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26121,40 +26161,40 @@
         <v>955396.0321260714</v>
       </c>
       <c r="E2" t="n">
-        <v>938737.9016593839</v>
+        <v>938737.9016593837</v>
       </c>
       <c r="F2" t="n">
-        <v>958748.0428165477</v>
+        <v>959349.9008549106</v>
       </c>
       <c r="G2" t="n">
-        <v>959349.9008549107</v>
+        <v>959349.9008549106</v>
       </c>
       <c r="H2" t="n">
-        <v>959349.9008549106</v>
+        <v>959349.9008549105</v>
       </c>
       <c r="I2" t="n">
-        <v>959349.9008549106</v>
+        <v>959349.9008549105</v>
       </c>
       <c r="J2" t="n">
         <v>934889.844987635</v>
       </c>
       <c r="K2" t="n">
-        <v>961571.7997246226</v>
+        <v>961571.7997246224</v>
       </c>
       <c r="L2" t="n">
-        <v>969896.8330247514</v>
+        <v>969896.833024751</v>
       </c>
       <c r="M2" t="n">
-        <v>969896.8330247514</v>
+        <v>969896.833024751</v>
       </c>
       <c r="N2" t="n">
-        <v>969896.8330247513</v>
+        <v>969896.8330247512</v>
       </c>
       <c r="O2" t="n">
-        <v>916492.334987635</v>
+        <v>916492.3349876349</v>
       </c>
       <c r="P2" t="n">
-        <v>840347.3210590899</v>
+        <v>838926.15105909</v>
       </c>
     </row>
     <row r="3">
@@ -26176,10 +26216,10 @@
         <v>304000</v>
       </c>
       <c r="F3" t="n">
-        <v>20000</v>
+        <v>20800</v>
       </c>
       <c r="G3" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26191,10 +26231,10 @@
         <v>280000</v>
       </c>
       <c r="K3" t="n">
-        <v>47200</v>
+        <v>48000</v>
       </c>
       <c r="L3" t="n">
-        <v>19200</v>
+        <v>18400</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26216,49 +26256,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516945.8081578696</v>
+        <v>516729.2344596348</v>
       </c>
       <c r="C4" t="n">
-        <v>515148.6571118427</v>
+        <v>514932.0834136077</v>
       </c>
       <c r="D4" t="n">
-        <v>513349.0681182514</v>
+        <v>513132.4944200165</v>
       </c>
       <c r="E4" t="n">
-        <v>501353.5207717809</v>
+        <v>501136.9470735459</v>
       </c>
       <c r="F4" t="n">
-        <v>511785.3207492395</v>
+        <v>511935.5369542995</v>
       </c>
       <c r="G4" t="n">
-        <v>510335.2279377221</v>
+        <v>510118.6542394872</v>
       </c>
       <c r="H4" t="n">
-        <v>508515.8234933802</v>
+        <v>508299.2497951454</v>
       </c>
       <c r="I4" t="n">
-        <v>506693.8791309034</v>
+        <v>506477.3054326685</v>
       </c>
       <c r="J4" t="n">
-        <v>490207.5969210622</v>
+        <v>489991.0232228274</v>
       </c>
       <c r="K4" t="n">
-        <v>504368.5602599506</v>
+        <v>504151.9865617157</v>
       </c>
       <c r="L4" t="n">
-        <v>507481.6130186809</v>
+        <v>507265.0393204461</v>
       </c>
       <c r="M4" t="n">
-        <v>505622.7549545127</v>
+        <v>505406.1812562778</v>
       </c>
       <c r="N4" t="n">
-        <v>503761.2241615489</v>
+        <v>503544.650463314</v>
       </c>
       <c r="O4" t="n">
-        <v>470558.0494079541</v>
+        <v>470341.4757097192</v>
       </c>
       <c r="P4" t="n">
-        <v>424335.2677986749</v>
+        <v>423288.3152576661</v>
       </c>
     </row>
     <row r="5">
@@ -26280,7 +26320,7 @@
         <v>32366.565</v>
       </c>
       <c r="F5" t="n">
-        <v>34468.29</v>
+        <v>34552.359</v>
       </c>
       <c r="G5" t="n">
         <v>34552.359</v>
@@ -26310,7 +26350,7 @@
         <v>30432.978</v>
       </c>
       <c r="P5" t="n">
-        <v>25472.907</v>
+        <v>25388.838</v>
       </c>
     </row>
     <row r="6">
@@ -26320,49 +26360,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>400402.2789682018</v>
+        <v>400618.8526664367</v>
       </c>
       <c r="C6" t="n">
-        <v>406199.4300142288</v>
+        <v>406416.0037124637</v>
       </c>
       <c r="D6" t="n">
-        <v>407999.0190078201</v>
+        <v>408215.5927060549</v>
       </c>
       <c r="E6" t="n">
-        <v>101017.815887603</v>
+        <v>101234.3895858377</v>
       </c>
       <c r="F6" t="n">
-        <v>392494.4320673082</v>
+        <v>392062.0049006111</v>
       </c>
       <c r="G6" t="n">
-        <v>409662.3139171887</v>
+        <v>410678.8876154234</v>
       </c>
       <c r="H6" t="n">
-        <v>416281.7183615305</v>
+        <v>416498.2920597651</v>
       </c>
       <c r="I6" t="n">
-        <v>418103.6627240072</v>
+        <v>418320.236422242</v>
       </c>
       <c r="J6" t="n">
-        <v>132651.9590665728</v>
+        <v>132868.5327648077</v>
       </c>
       <c r="K6" t="n">
-        <v>375114.604464672</v>
+        <v>374531.1781629067</v>
       </c>
       <c r="L6" t="n">
-        <v>406813.3430060705</v>
+        <v>407829.916704305</v>
       </c>
       <c r="M6" t="n">
-        <v>427872.2010702387</v>
+        <v>428088.7747684733</v>
       </c>
       <c r="N6" t="n">
-        <v>429733.7318632024</v>
+        <v>429950.3055614372</v>
       </c>
       <c r="O6" t="n">
-        <v>192301.3075796809</v>
+        <v>192517.8812779157</v>
       </c>
       <c r="P6" t="n">
-        <v>390539.146260415</v>
+        <v>390248.9978014239</v>
       </c>
     </row>
   </sheetData>
@@ -26620,7 +26660,7 @@
         <v>385</v>
       </c>
       <c r="F2" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G2" t="n">
         <v>411</v>
@@ -26650,7 +26690,7 @@
         <v>362</v>
       </c>
       <c r="P2" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
@@ -26842,10 +26882,10 @@
         <v>380</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26857,10 +26897,10 @@
         <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27079,10 +27119,10 @@
         <v>380</v>
       </c>
       <c r="K2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27094,7 +27134,7 @@
         <v>350</v>
       </c>
       <c r="P2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -28249,13 +28289,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C14" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D14" t="n">
-        <v>410</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E14" t="n">
         <v>404.3632896068686</v>
@@ -28264,10 +28304,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>410</v>
+        <v>410.8327491714383</v>
       </c>
       <c r="H14" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I14" t="n">
         <v>136.407413904614</v>
@@ -28303,22 +28343,22 @@
         <v>250.2973349495345</v>
       </c>
       <c r="T14" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U14" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="V14" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W14" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="X14" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y14" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15">
@@ -28388,13 +28428,13 @@
         <v>399.6886974097119</v>
       </c>
       <c r="V15" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W15" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="X15" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y15" t="n">
         <v>399.3913927661343</v>
@@ -28452,10 +28492,10 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q16" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R16" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S16" t="n">
         <v>409.541226054864</v>
@@ -30619,25 +30659,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I44" t="n">
         <v>136.407413904614</v>
@@ -30673,22 +30713,22 @@
         <v>250.2973349495345</v>
       </c>
       <c r="T44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45">
@@ -30698,25 +30738,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I45" t="n">
         <v>81.62548565704105</v>
@@ -30746,28 +30786,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y45" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46">
@@ -30822,13 +30862,13 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q46" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R46" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S46" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T46" t="n">
         <v>223.1403870791274</v>
